--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1233664.995947987</v>
+        <v>-1235563.228052111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>553987.5333101207</v>
+        <v>474684.4885207686</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.8664907578628</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>253.8046038660163</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T3" t="n">
         <v>196.8897623984489</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>45.5398041902247</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5.514799332982449</v>
       </c>
       <c r="H4" t="n">
-        <v>73.65157865819869</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>161.8485173444884</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>293.3152421455231</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -944,25 +944,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>142.4511276770251</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>68.19029374363612</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>160.9608410339008</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>329.3652646889703</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>150.5327311694215</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>86.85904583823159</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>117.5623013534757</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>205.8417327459702</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>104.635435058618</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274091</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262919</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.9013320701444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,10 +1774,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>186.2843972853208</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>207.2045317851313</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>92.34798888139575</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>160.8722505808164</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.65811021293053</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>170.5184561217445</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>65.50171900230325</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,13 +2527,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>155.1596671103857</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>166.1779330367506</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>243.1756439740325</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522972</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378956</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287491</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
         <v>218.1054622689367</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1164.312709242129</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.312709242129</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>1215.881273373638</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367297</v>
+        <v>1992.620445413572</v>
       </c>
       <c r="Y2" t="n">
-        <v>1461.147548391485</v>
+        <v>1602.48111343776</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4410,40 +4410,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164661</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.500346212138</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>275.2284633164553</v>
+        <v>2515.500626187983</v>
       </c>
       <c r="C4" t="n">
-        <v>275.2284633164553</v>
+        <v>2469.500823975634</v>
       </c>
       <c r="D4" t="n">
-        <v>275.2284633164553</v>
+        <v>2469.500823975634</v>
       </c>
       <c r="E4" t="n">
-        <v>275.2284633164553</v>
+        <v>2469.500823975634</v>
       </c>
       <c r="F4" t="n">
-        <v>128.3385158185449</v>
+        <v>2322.610876477724</v>
       </c>
       <c r="G4" t="n">
-        <v>128.3385158185449</v>
+        <v>2317.040372100974</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2159.291999533505</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>564.6456333534159</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>564.6456333534159</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>275.2284633164553</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>275.2284633164553</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>275.2284633164553</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1624.753525949915</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C5" t="n">
-        <v>1255.791009009504</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1255.791009009504</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2103.418218878357</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1750.649563608243</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>1377.183805347164</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949915</v>
+        <v>1377.183805347164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,13 +4647,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>565.5422760913831</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>396.6060931634762</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4762,13 +4762,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>565.5422760913831</v>
       </c>
     </row>
     <row r="8">
@@ -4790,64 +4790,64 @@
         <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2545.095827210725</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2326.461160182788</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1973.692504912674</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.779601230298</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.779601230298</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614628</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.060406649889</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>291.7960311703079</v>
+        <v>470.7225141620385</v>
       </c>
       <c r="C10" t="n">
-        <v>291.7960311703079</v>
+        <v>470.7225141620385</v>
       </c>
       <c r="D10" t="n">
-        <v>141.6793917579721</v>
+        <v>320.6058747497027</v>
       </c>
       <c r="E10" t="n">
-        <v>141.6793917579721</v>
+        <v>172.6927811673096</v>
       </c>
       <c r="F10" t="n">
-        <v>141.6793917579721</v>
+        <v>172.6927811673096</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6927811673096</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005476</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005476</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005476</v>
+        <v>470.7225141620385</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.4444960005476</v>
+        <v>470.7225141620385</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>836.4717212750119</v>
+        <v>894.5540770733951</v>
       </c>
       <c r="M12" t="n">
-        <v>1156.807040804714</v>
+        <v>1214.889396603097</v>
       </c>
       <c r="N12" t="n">
-        <v>1501.327696442332</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O12" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>990.782867939064</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>821.8466850111571</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>671.7300455988213</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164282</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688062</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799354</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471183</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1091.075318305807</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1091.075318305807</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6581482688464</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>1393.223911912834</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>1172.431332769304</v>
       </c>
     </row>
     <row r="14">
@@ -5255,34 +5255,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822464</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515098</v>
@@ -5291,7 +5291,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5343,13 +5343,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028587</v>
@@ -5358,25 +5358,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047987</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028587</v>
+        <v>1120.268935875779</v>
       </c>
       <c r="M15" t="n">
-        <v>744.3684618792639</v>
+        <v>1440.604255405481</v>
       </c>
       <c r="N15" t="n">
-        <v>1548.780040143415</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O15" t="n">
-        <v>1797.533454227377</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028587</v>
@@ -5434,16 +5434,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>999.7550991713207</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>999.7550991713207</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="X16" t="n">
-        <v>711.072954880832</v>
+        <v>745.0706109654338</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.072954880832</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5513,19 +5513,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5546,13 +5546,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>506.3718661188905</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1120.268935875779</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1440.604255405481</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O18" t="n">
-        <v>2418.551024593929</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.3537517307267</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C19" t="n">
-        <v>635.4175688028198</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D19" t="n">
-        <v>485.300929390484</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E19" t="n">
-        <v>337.3878358080909</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F19" t="n">
-        <v>190.4978883101806</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G19" t="n">
-        <v>190.4978883101806</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H19" t="n">
         <v>97.21709146028587</v>
@@ -5671,16 +5671,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609664</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X19" t="n">
-        <v>986.0022165609664</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.0022165609664</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>506.3718661188911</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1120.26893587578</v>
       </c>
       <c r="M21" t="n">
-        <v>1608.660951743751</v>
+        <v>1440.604255405482</v>
       </c>
       <c r="N21" t="n">
-        <v>2192.176613678825</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.130185042679</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>902.9699804935216</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>648.2854922876347</v>
       </c>
       <c r="W22" t="n">
-        <v>755.183133481126</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="X22" t="n">
-        <v>527.1935825831087</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="Y22" t="n">
-        <v>306.4010034395785</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,34 +5978,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.627437207831</v>
@@ -6014,25 +6014,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>2019.669423557258</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N24" t="n">
-        <v>2364.190079194876</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O24" t="n">
-        <v>2612.943493278838</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.943493278838</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>573.2461374003673</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C25" t="n">
-        <v>573.2461374003673</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D25" t="n">
-        <v>573.2461374003673</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E25" t="n">
-        <v>425.3330438179742</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6175,22 +6175,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1142.269323998318</v>
       </c>
       <c r="U25" t="n">
-        <v>1298.996260473455</v>
+        <v>853.1406852118757</v>
       </c>
       <c r="V25" t="n">
-        <v>1044.311772267568</v>
+        <v>853.1406852118757</v>
       </c>
       <c r="W25" t="n">
-        <v>754.894602230607</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="X25" t="n">
-        <v>754.894602230607</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y25" t="n">
-        <v>754.894602230607</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,61 +6212,61 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6315,13 +6315,13 @@
         <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>2374.820091292176</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>1857.414365827714</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>825.3747459653034</v>
+        <v>563.4612303381598</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3747459653034</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2581065529677</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705745</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>1053.364296863321</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>1053.364296863321</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X28" t="n">
-        <v>825.3747459653034</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y28" t="n">
-        <v>825.3747459653034</v>
+        <v>731.3177283550796</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6461,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6598,16 +6598,16 @@
         <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6655,16 +6655,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6692,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
@@ -6701,25 +6701,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6789,16 +6789,16 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6926,40 +6926,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7020,22 +7020,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="N36" t="n">
-        <v>2401.214434244129</v>
+        <v>1478.840140721312</v>
       </c>
       <c r="O36" t="n">
-        <v>2401.214434244129</v>
+        <v>2148.303902023971</v>
       </c>
       <c r="P36" t="n">
-        <v>2401.214434244129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,13 +7090,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7154,49 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7333,16 +7333,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7351,10 +7351,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6581146605672</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1648.370314660465</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103128</v>
@@ -7564,25 +7564,25 @@
         <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.428562457161</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605669</v>
+        <v>674.428562457161</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1478.840140721312</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2148.303902023971</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,13 +7786,13 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270198</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951795</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9027,7 +9027,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,16 +9963,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10437,16 +10437,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10668,22 +10668,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>198.568530941954</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>142.1340339220183</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849285</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22711,16 +22711,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>161.7950029260685</v>
       </c>
       <c r="H4" t="n">
-        <v>82.51931018359646</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675348</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>80.39561965260714</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>121.0742203304192</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,10 +23662,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>35.26316377306844</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>18.50512360390587</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>56.56583948614038</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23941,22 +23941,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>91.2653927430116</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.1738699690068</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>115.7188962768329</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>79.919329020628</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,13 +24415,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>66.38789394800352</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>13.65404714518672</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>8.961999349795462</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1251292.991160668</v>
+        <v>1251292.991160669</v>
       </c>
     </row>
     <row r="6">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1251292.991160668</v>
+        <v>1251292.991160669</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1251292.991160669</v>
+        <v>1251292.991160668</v>
       </c>
     </row>
     <row r="11">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122046.641203581</v>
+        <v>122046.6412035809</v>
       </c>
       <c r="C2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="D2" t="n">
         <v>123156.2654796424</v>
-      </c>
-      <c r="D2" t="n">
-        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>117308.7179213126</v>
       </c>
       <c r="F2" t="n">
+        <v>117308.7179213125</v>
+      </c>
+      <c r="G2" t="n">
         <v>117308.7179213126</v>
-      </c>
-      <c r="G2" t="n">
-        <v>117308.7179213125</v>
       </c>
       <c r="H2" t="n">
         <v>117308.7179213126</v>
@@ -26338,19 +26338,19 @@
         <v>117308.7179213126</v>
       </c>
       <c r="K2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="L2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="M2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
         <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371248</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758595</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758372</v>
+        <v>787.7936905758287</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758436</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758824</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189638</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="M4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="N4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189641</v>
-      </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189637</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26500,13 +26500,13 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-685617.2085681449</v>
+        <v>-685635.7023060791</v>
       </c>
       <c r="C6" t="n">
-        <v>-98761.95176438605</v>
+        <v>-98761.95176438602</v>
       </c>
       <c r="D6" t="n">
-        <v>-98761.95176438603</v>
+        <v>-98761.95176438612</v>
       </c>
       <c r="E6" t="n">
-        <v>-500626.438194876</v>
+        <v>-500723.8973208485</v>
       </c>
       <c r="F6" t="n">
-        <v>24533.59828202013</v>
+        <v>24436.13915604788</v>
       </c>
       <c r="G6" t="n">
-        <v>24533.59828202007</v>
+        <v>24436.13915604792</v>
       </c>
       <c r="H6" t="n">
-        <v>24533.59828202003</v>
+        <v>24436.13915604791</v>
       </c>
       <c r="I6" t="n">
-        <v>24533.59828202012</v>
+        <v>24436.13915604794</v>
       </c>
       <c r="J6" t="n">
-        <v>-151889.6209105728</v>
+        <v>-151987.080036545</v>
       </c>
       <c r="K6" t="n">
-        <v>-52270.93337599175</v>
+        <v>-52270.93337599169</v>
       </c>
       <c r="L6" t="n">
-        <v>2234.578727720756</v>
+        <v>2234.578727720771</v>
       </c>
       <c r="M6" t="n">
         <v>-132566.4365061164</v>
       </c>
       <c r="N6" t="n">
-        <v>2234.578727720873</v>
+        <v>2234.578727720742</v>
       </c>
       <c r="O6" t="n">
-        <v>2234.578727720742</v>
+        <v>2234.578727720771</v>
       </c>
       <c r="P6" t="n">
-        <v>-52270.9333759918</v>
+        <v>-52270.93337599172</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541008</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.86735090561774</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>128.1257662062455</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>121.7070169084031</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>124.4333568974893</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>88.61512792673869</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>185.3011307931098</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>80.42517927457624</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>57.62381231819396</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.36857697451023</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>23.88298163955002</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>80.45075642081932</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>38.60858748831944</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,10 +28087,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31118,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
-        <v>115.4815392304388</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31364,7 +31364,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31373,7 +31373,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576417</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>278.4799167015761</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -31853,16 +31853,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>399.7368686068478</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677464</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443619</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444947</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041491</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565522</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927189</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540889</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104654</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354104</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386727</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127068</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622984</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>386.0590603056884</v>
       </c>
       <c r="M15" t="n">
-        <v>330.1172231204811</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677467</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361494</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822384</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196126</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171321</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337674</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892249</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.0816769579135182</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565527</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>286.6638531320881</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>63.10596476685544</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>286.6638531320888</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32561,25 +32561,25 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.4090972701573</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,7 +32795,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>415.1600725388957</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>160.5761976634612</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,16 +32962,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33035,25 +33035,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>425.8974584957643</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>291.3194390094542</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,7 +33269,7 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
         <v>224.6051223555648</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,25 +33427,25 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,28 +33506,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>79.28971691238627</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130445</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>295.5819451907234</v>
       </c>
       <c r="Q36" t="n">
-        <v>143.7722227488687</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,16 +34147,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>15.68083516040122</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,13 +34442,13 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -34457,19 +34457,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>295.5819451907234</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>242.1053372686584</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856233</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730645</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>510.7658822251611</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
@@ -35501,10 +35501,10 @@
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>651.0029434391329</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299096</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109075</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.329650222112</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081122</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951475</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349822</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.040675600518</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>618.3450258292734</v>
       </c>
       <c r="M15" t="n">
-        <v>653.6882529484627</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799287</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187483</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>413.2876511703077</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>314.3720395991405</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>413.2876511703084</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36209,16 +36209,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>589.4097595303775</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>738.7311023668773</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
         <v>348.0006622602202</v>
@@ -36452,13 +36452,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>345.0645588890682</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>773.8981207559846</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>475.8078002350612</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>572.6057846157851</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>263.7780781379932</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>480.0703064163303</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.8677363986963</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37713,13 +37713,13 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>60.72709196759495</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>363.6814974206214</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,16 +37947,16 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629101</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>480.0703064163303</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
